--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC12_Update_Quantity_CartPage.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC12_Update_Quantity_CartPage.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vaibhav Oza\KAMAN_ECTEST_IE_SANITY-master\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TC12_Update_Quantity_CartPage" sheetId="1" r:id="rId1"/>
     <sheet name="Testdata" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
   <si>
     <t>TestCase</t>
   </si>
@@ -148,9 +153,6 @@
     <t>ProductMegamenu</t>
   </si>
   <si>
-    <t>Gearing | KamanDirect</t>
-  </si>
-  <si>
     <t>GearingCategoryHeader</t>
   </si>
   <si>
@@ -242,6 +244,12 @@
   </si>
   <si>
     <t>TC12_Update_Quantity_CartPage</t>
+  </si>
+  <si>
+    <t>Gear Racks and Pinions</t>
+  </si>
+  <si>
+    <t>Gear Racks and Pinions | Kaman Industrial</t>
   </si>
 </sst>
 </file>
@@ -658,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -692,7 +700,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -706,108 +714,88 @@
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -815,44 +803,50 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
@@ -861,135 +855,113 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
@@ -997,26 +969,125 @@
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1102,13 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1053,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1189,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1205,12 +1276,12 @@
         <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1218,7 +1289,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1226,7 +1297,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1234,7 +1305,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1242,7 +1313,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1250,7 +1321,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1258,7 +1329,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1266,7 +1337,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1274,7 +1345,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1282,7 +1353,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1290,7 +1361,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -1298,10 +1369,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1314,6 +1385,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1510,22 +1596,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1542,29 +1638,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fd27ab66-8f5a-4733-8e24-c3cb82244a05"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>